--- a/tests/test-files/test_data_plot/input/generate_curvefit_plots_yijk_mean_input.xlsx
+++ b/tests/test-files/test_data_plot/input/generate_curvefit_plots_yijk_mean_input.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,30 +472,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ppm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>yikj_bar</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>9.5625</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.005742219534558941</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.02857268554225437</v>
       </c>
     </row>
     <row r="3">
@@ -504,13 +496,10 @@
         <v>0.5</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01592928666034522</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.01273434345494723</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +508,10 @@
         <v>0.75</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01632764129944886</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.02471409003012482</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +520,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02675194768778622</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.03088585505623797</v>
       </c>
     </row>
     <row r="6">
@@ -549,13 +532,10 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02324195781219216</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.03533665974114791</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +544,10 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02395251122347239</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.03388012702566612</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +556,10 @@
         <v>1.75</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02796531682335887</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.03363220394961426</v>
       </c>
     </row>
   </sheetData>
